--- a/virtual-keyboard.xlsx
+++ b/virtual-keyboard.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="470" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,6 +23,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -31,6 +32,7 @@
     <r>
       <rPr>
         <rFont val="IPA Pゴシック"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -39,6 +41,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -52,6 +55,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -60,6 +64,7 @@
     <r>
       <rPr>
         <rFont val="IPA Pゴシック"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -68,6 +73,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -81,6 +87,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -89,6 +96,7 @@
     <r>
       <rPr>
         <rFont val="IPA Pゴシック"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -97,6 +105,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -110,6 +119,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -118,6 +128,7 @@
     <r>
       <rPr>
         <rFont val="IPA Pゴシック"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -126,6 +137,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -139,6 +151,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
@@ -486,6 +499,7 @@
   <fonts count="5">
     <font>
       <name val="IPA Pゴシック"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -506,6 +520,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -569,11 +584,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -596,19 +611,19 @@
   </sheetPr>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A106" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A111" activeCellId="0" pane="topLeft" sqref="A111"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A73" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D81" activeCellId="0" pane="topLeft" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8820754716981"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.872641509434"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.1981132075472"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.311320754717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37735849056604"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.3867924528302"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6509433962264"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.8783783783784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.8738738738739"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="1" width="11.1936936936937"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="15.3108108108108"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37387387387387"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.3873873873874"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.6531531531532"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
@@ -755,8 +770,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <f aca="false">A6+19.05*0.5</f>
-        <v>104.775</v>
+        <f aca="false">A6+19.05*1.5</f>
+        <v>123.825</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>0</v>
@@ -780,7 +795,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
         <f aca="false">A7+19.05</f>
-        <v>123.825</v>
+        <v>142.875</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>0</v>
@@ -804,7 +819,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
         <f aca="false">A8+19.05</f>
-        <v>142.875</v>
+        <v>161.925</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>0</v>
@@ -828,7 +843,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
         <f aca="false">A9+19.05</f>
-        <v>161.925</v>
+        <v>180.975</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>0</v>
@@ -851,8 +866,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
-        <f aca="false">A10+19.05*0.5</f>
-        <v>171.45</v>
+        <f aca="false">A10+19.05*1.5</f>
+        <v>209.55</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
@@ -876,7 +891,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
         <f aca="false">A11+19.05</f>
-        <v>190.5</v>
+        <v>228.6</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>0</v>
@@ -900,7 +915,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
         <f aca="false">A12+19.05</f>
-        <v>209.55</v>
+        <v>247.65</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>0</v>
@@ -924,7 +939,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
         <f aca="false">A13+19.05</f>
-        <v>228.6</v>
+        <v>266.7</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
@@ -947,8 +962,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
-        <f aca="false">A14+19.05*0.5</f>
-        <v>238.125</v>
+        <f aca="false">A14+19.05*1.5</f>
+        <v>295.275</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>0</v>
@@ -972,7 +987,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
         <f aca="false">A15+19.05</f>
-        <v>257.175</v>
+        <v>314.325</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>0</v>
@@ -996,7 +1011,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="1" t="n">
         <f aca="false">A16+19.05</f>
-        <v>276.225</v>
+        <v>333.375</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>0</v>
@@ -2026,8 +2041,7 @@
         <v>66.675</v>
       </c>
       <c r="C58" s="1" t="n">
-        <f aca="false">19.05+19.05*0.25</f>
-        <v>23.8125</v>
+        <v>19.05</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>19.05</v>
@@ -2045,7 +2059,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="1" t="n">
         <f aca="false">A58+C58</f>
-        <v>266.7</v>
+        <v>261.9375</v>
       </c>
       <c r="B59" s="1" t="n">
         <f aca="false">B58</f>
@@ -2071,7 +2085,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="1" t="n">
         <f aca="false">A59-19.05*0.25</f>
-        <v>261.9375</v>
+        <v>257.175</v>
       </c>
       <c r="B60" s="1" t="n">
         <f aca="false">B59-19.05</f>
@@ -2103,8 +2117,8 @@
         <v>85.725</v>
       </c>
       <c r="C61" s="1" t="n">
-        <f aca="false">19.05*1.25</f>
-        <v>23.8125</v>
+        <f aca="false">19.05*2.25</f>
+        <v>42.8625</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>19.05</v>
@@ -2122,7 +2136,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="1" t="n">
         <f aca="false">A61+C61</f>
-        <v>23.8125</v>
+        <v>42.8625</v>
       </c>
       <c r="B62" s="1" t="n">
         <f aca="false">B61</f>
@@ -2147,7 +2161,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="1" t="n">
         <f aca="false">A62+C62</f>
-        <v>42.8625</v>
+        <v>61.9125</v>
       </c>
       <c r="B63" s="1" t="n">
         <f aca="false">B62</f>
@@ -2172,7 +2186,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="1" t="n">
         <f aca="false">A63+C63</f>
-        <v>61.9125</v>
+        <v>80.9625</v>
       </c>
       <c r="B64" s="1" t="n">
         <f aca="false">B63</f>
@@ -2197,7 +2211,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="1" t="n">
         <f aca="false">A64+C64</f>
-        <v>80.9625</v>
+        <v>100.0125</v>
       </c>
       <c r="B65" s="1" t="n">
         <f aca="false">B64</f>
@@ -2222,7 +2236,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="1" t="n">
         <f aca="false">A65+C65</f>
-        <v>100.0125</v>
+        <v>119.0625</v>
       </c>
       <c r="B66" s="1" t="n">
         <f aca="false">B65</f>
@@ -2247,7 +2261,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="1" t="n">
         <f aca="false">A66+C66</f>
-        <v>119.0625</v>
+        <v>138.1125</v>
       </c>
       <c r="B67" s="1" t="n">
         <f aca="false">B66</f>
@@ -2272,7 +2286,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="1" t="n">
         <f aca="false">A67+C67</f>
-        <v>138.1125</v>
+        <v>157.1625</v>
       </c>
       <c r="B68" s="1" t="n">
         <f aca="false">B67</f>
@@ -2297,7 +2311,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="1" t="n">
         <f aca="false">A68+C68</f>
-        <v>157.1625</v>
+        <v>176.2125</v>
       </c>
       <c r="B69" s="1" t="n">
         <f aca="false">B68</f>
@@ -2322,7 +2336,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="1" t="n">
         <f aca="false">A69+C69</f>
-        <v>176.2125</v>
+        <v>195.2625</v>
       </c>
       <c r="B70" s="1" t="n">
         <f aca="false">B69</f>
@@ -2347,7 +2361,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="1" t="n">
         <f aca="false">A70+C70</f>
-        <v>195.2625</v>
+        <v>214.3125</v>
       </c>
       <c r="B71" s="1" t="n">
         <f aca="false">B70</f>
@@ -2372,7 +2386,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="1" t="n">
         <f aca="false">A71+C71</f>
-        <v>214.3125</v>
+        <v>233.3625</v>
       </c>
       <c r="B72" s="1" t="n">
         <f aca="false">B71</f>
@@ -2397,7 +2411,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="1" t="n">
         <f aca="false">A72+C72</f>
-        <v>233.3625</v>
+        <v>252.4125</v>
       </c>
       <c r="B73" s="1" t="n">
         <f aca="false">B72</f>
@@ -2480,8 +2494,8 @@
         <v>104.775</v>
       </c>
       <c r="C76" s="1" t="n">
-        <f aca="false">19.05+19.05*0.25</f>
-        <v>23.8125</v>
+        <f aca="false">19.05+19.05*0.5</f>
+        <v>28.575</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>19.05</v>
@@ -2499,7 +2513,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="1" t="n">
         <f aca="false">A76+C76</f>
-        <v>71.4375</v>
+        <v>76.2</v>
       </c>
       <c r="B77" s="1" t="n">
         <f aca="false">B76</f>
@@ -2524,15 +2538,15 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="1" t="n">
         <f aca="false">A77+C77</f>
-        <v>90.4875</v>
+        <v>95.25</v>
       </c>
       <c r="B78" s="1" t="n">
         <f aca="false">B77</f>
         <v>104.775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <f aca="false">19.05*4.25</f>
-        <v>80.9625</v>
+        <f aca="false">19.05*2.5</f>
+        <v>47.625</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>19.05</v>
@@ -2550,15 +2564,15 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="1" t="n">
         <f aca="false">A78+C78</f>
-        <v>171.45</v>
+        <v>142.875</v>
       </c>
       <c r="B79" s="1" t="n">
         <f aca="false">B78</f>
         <v>104.775</v>
       </c>
       <c r="C79" s="1" t="n">
-        <f aca="false">19.05+19.05*0.25</f>
-        <v>23.8125</v>
+        <f aca="false">19.05+19.05*0.5</f>
+        <v>28.575</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>19.05</v>
@@ -2576,15 +2590,15 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="1" t="n">
         <f aca="false">A79+C79</f>
-        <v>195.2625</v>
+        <v>171.45</v>
       </c>
       <c r="B80" s="1" t="n">
         <f aca="false">B79</f>
         <v>104.775</v>
       </c>
       <c r="C80" s="1" t="n">
-        <f aca="false">19.05+19.05*0.25</f>
-        <v>23.8125</v>
+        <f aca="false">19.05</f>
+        <v>19.05</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>19.05</v>
@@ -2602,15 +2616,15 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="1" t="n">
         <f aca="false">A80+C80</f>
-        <v>219.075</v>
+        <v>190.5</v>
       </c>
       <c r="B81" s="1" t="n">
         <f aca="false">B80</f>
         <v>104.775</v>
       </c>
       <c r="C81" s="1" t="n">
-        <f aca="false">19.05+19.05*0.25</f>
-        <v>23.8125</v>
+        <f aca="false">19.05+19.05*0.5</f>
+        <v>28.575</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>19.05</v>
@@ -2628,7 +2642,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="1" t="n">
         <f aca="false">A81+C81</f>
-        <v>242.8875</v>
+        <v>219.075</v>
       </c>
       <c r="B82" s="1" t="n">
         <f aca="false">B81</f>
@@ -2653,7 +2667,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="83">
       <c r="A83" s="1" t="n">
         <f aca="false">A82+C82</f>
-        <v>261.9375</v>
+        <v>238.125</v>
       </c>
       <c r="B83" s="1" t="n">
         <f aca="false">B82</f>
@@ -2678,7 +2692,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="84">
       <c r="A84" s="1" t="n">
         <f aca="false">A83+C83</f>
-        <v>280.9875</v>
+        <v>257.175</v>
       </c>
       <c r="B84" s="1" t="n">
         <f aca="false">B83</f>
@@ -2703,7 +2717,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="1" t="n">
-        <v>238.125</v>
+        <f aca="false">A15</f>
+        <v>295.275</v>
       </c>
       <c r="B85" s="1" t="n">
         <f aca="false">19.05+19.05*0.5</f>
@@ -2728,7 +2743,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="1" t="n">
         <f aca="false">A85</f>
-        <v>238.125</v>
+        <v>295.275</v>
       </c>
       <c r="B86" s="1" t="n">
         <f aca="false">B85+D85</f>
@@ -2753,7 +2768,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="1" t="n">
         <f aca="false">A85+C85</f>
-        <v>257.175</v>
+        <v>314.325</v>
       </c>
       <c r="B87" s="1" t="n">
         <f aca="false">19.05+19.05*0.5</f>
@@ -2778,7 +2793,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="1" t="n">
         <f aca="false">A87</f>
-        <v>257.175</v>
+        <v>314.325</v>
       </c>
       <c r="B88" s="1" t="n">
         <f aca="false">B87+D87</f>
@@ -2803,7 +2818,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="1" t="n">
         <f aca="false">A87+C87</f>
-        <v>276.225</v>
+        <v>333.375</v>
       </c>
       <c r="B89" s="1" t="n">
         <f aca="false">19.05+19.05*0.5</f>
@@ -2828,7 +2843,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="1" t="n">
         <f aca="false">A89</f>
-        <v>276.225</v>
+        <v>333.375</v>
       </c>
       <c r="B90" s="1" t="n">
         <f aca="false">B89+D89</f>
@@ -2852,8 +2867,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="1" t="n">
-        <f aca="false">A92+19.05</f>
-        <v>257.175</v>
+        <f aca="false">A87</f>
+        <v>314.325</v>
       </c>
       <c r="B91" s="1" t="n">
         <v>85.725</v>
@@ -2876,7 +2891,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="1" t="n">
-        <v>238.125</v>
+        <f aca="false">A85</f>
+        <v>295.275</v>
       </c>
       <c r="B92" s="1" t="n">
         <f aca="false">B91+D91</f>
@@ -2901,7 +2917,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="1" t="n">
         <f aca="false">A92+19.05</f>
-        <v>257.175</v>
+        <v>314.325</v>
       </c>
       <c r="B93" s="1" t="n">
         <f aca="false">B92</f>
@@ -2926,7 +2942,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="1" t="n">
         <f aca="false">A93+19.05</f>
-        <v>276.225</v>
+        <v>333.375</v>
       </c>
       <c r="B94" s="1" t="n">
         <f aca="false">B93</f>
@@ -2950,8 +2966,8 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="95">
       <c r="A95" s="1" t="n">
-        <f aca="false">A94+19.05*0.25</f>
-        <v>280.9875</v>
+        <f aca="false">A89+19.05*1.5</f>
+        <v>361.95</v>
       </c>
       <c r="B95" s="1" t="n">
         <f aca="false">19.05+19.05*0.5</f>
@@ -2973,10 +2989,10 @@
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="1" t="n">
         <f aca="false">A95+19.05</f>
-        <v>300.0375</v>
+        <v>381</v>
       </c>
       <c r="B96" s="1" t="n">
         <f aca="false">B95</f>
@@ -3001,7 +3017,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="97">
       <c r="A97" s="1" t="n">
         <f aca="false">A96+19.05</f>
-        <v>319.0875</v>
+        <v>400.05</v>
       </c>
       <c r="B97" s="1" t="n">
         <f aca="false">B96</f>
@@ -3026,7 +3042,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="98">
       <c r="A98" s="1" t="n">
         <f aca="false">A97+19.05</f>
-        <v>338.1375</v>
+        <v>419.1</v>
       </c>
       <c r="B98" s="1" t="n">
         <f aca="false">B97</f>
@@ -3051,7 +3067,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="99">
       <c r="A99" s="1" t="n">
         <f aca="false">A98</f>
-        <v>338.1375</v>
+        <v>419.1</v>
       </c>
       <c r="B99" s="1" t="n">
         <f aca="false">B98+19.05</f>
@@ -3077,7 +3093,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="100">
       <c r="A100" s="1" t="n">
         <f aca="false">A99</f>
-        <v>338.1375</v>
+        <v>419.1</v>
       </c>
       <c r="B100" s="1" t="n">
         <f aca="false">B99+D99</f>
@@ -3103,7 +3119,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="101">
       <c r="A101" s="1" t="n">
         <f aca="false">A95</f>
-        <v>280.9875</v>
+        <v>361.95</v>
       </c>
       <c r="B101" s="1" t="n">
         <f aca="false">19.05+19.05*0.5+19.05</f>
@@ -3128,7 +3144,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="102">
       <c r="A102" s="1" t="n">
         <f aca="false">A101+19.05</f>
-        <v>300.0375</v>
+        <v>381</v>
       </c>
       <c r="B102" s="1" t="n">
         <f aca="false">B101</f>
@@ -3153,7 +3169,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="103">
       <c r="A103" s="1" t="n">
         <f aca="false">A102+19.05</f>
-        <v>319.0875</v>
+        <v>400.05</v>
       </c>
       <c r="B103" s="1" t="n">
         <f aca="false">B102</f>
@@ -3178,7 +3194,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="104">
       <c r="A104" s="1" t="n">
         <f aca="false">A101</f>
-        <v>280.9875</v>
+        <v>361.95</v>
       </c>
       <c r="B104" s="1" t="n">
         <f aca="false">B103+19.05</f>
@@ -3203,7 +3219,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="105">
       <c r="A105" s="1" t="n">
         <f aca="false">A104+19.05</f>
-        <v>300.0375</v>
+        <v>381</v>
       </c>
       <c r="B105" s="1" t="n">
         <f aca="false">B104</f>
@@ -3228,7 +3244,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="106">
       <c r="A106" s="1" t="n">
         <f aca="false">A105+19.05</f>
-        <v>319.0875</v>
+        <v>400.05</v>
       </c>
       <c r="B106" s="1" t="n">
         <f aca="false">B105</f>
@@ -3253,7 +3269,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="107">
       <c r="A107" s="1" t="n">
         <f aca="false">A104</f>
-        <v>280.9875</v>
+        <v>361.95</v>
       </c>
       <c r="B107" s="1" t="n">
         <f aca="false">B106+19.05</f>
@@ -3278,7 +3294,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="108">
       <c r="A108" s="1" t="n">
         <f aca="false">A107+19.05</f>
-        <v>300.0375</v>
+        <v>381</v>
       </c>
       <c r="B108" s="1" t="n">
         <f aca="false">B107</f>
@@ -3303,7 +3319,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="109">
       <c r="A109" s="1" t="n">
         <f aca="false">A108+19.05</f>
-        <v>319.0875</v>
+        <v>400.05</v>
       </c>
       <c r="B109" s="1" t="n">
         <f aca="false">B108</f>
@@ -3328,7 +3344,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="110">
       <c r="A110" s="1" t="n">
         <f aca="false">A107</f>
-        <v>280.9875</v>
+        <v>361.95</v>
       </c>
       <c r="B110" s="1" t="n">
         <f aca="false">B109+19.05</f>
@@ -3354,7 +3370,7 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="111">
       <c r="A111" s="1" t="n">
         <f aca="false">A110+C110</f>
-        <v>319.0875</v>
+        <v>400.05</v>
       </c>
       <c r="B111" s="1" t="n">
         <f aca="false">B110</f>
